--- a/13/1/2/1/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
+++ b/13/1/2/1/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
@@ -5660,13 +5660,13 @@
         <v>89</v>
       </c>
       <c r="B66">
-        <v>12087272</v>
+        <v>12067572</v>
       </c>
       <c r="C66">
         <v>9809013</v>
       </c>
       <c r="D66">
-        <v>253444</v>
+        <v>253443</v>
       </c>
       <c r="E66">
         <v>688144</v>
@@ -5681,10 +5681,10 @@
         <v>507395</v>
       </c>
       <c r="I66">
-        <v>718921</v>
+        <v>699221</v>
       </c>
       <c r="J66">
-        <v>12289176</v>
+        <v>12289184</v>
       </c>
       <c r="K66">
         <v>2907966</v>
@@ -5693,7 +5693,7 @@
         <v>985079</v>
       </c>
       <c r="M66">
-        <v>915761</v>
+        <v>915770</v>
       </c>
       <c r="N66">
         <v>5335302</v>
@@ -5705,7 +5705,7 @@
         <v>25284</v>
       </c>
       <c r="Q66">
-        <v>-201903</v>
+        <v>-221613</v>
       </c>
       <c r="R66">
         <v>1286147</v>
@@ -5720,13 +5720,13 @@
         <v>651410</v>
       </c>
       <c r="V66">
-        <v>12089077</v>
+        <v>12069376</v>
       </c>
       <c r="W66">
-        <v>13577127</v>
+        <v>13577136</v>
       </c>
       <c r="X66">
-        <v>-1488050</v>
+        <v>-1507760</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -5737,13 +5737,13 @@
         <v>90</v>
       </c>
       <c r="B67">
-        <v>13520553</v>
+        <v>13540253</v>
       </c>
       <c r="C67">
         <v>10991018</v>
       </c>
       <c r="D67">
-        <v>877997</v>
+        <v>877998</v>
       </c>
       <c r="E67">
         <v>684890</v>
@@ -5758,10 +5758,10 @@
         <v>257571</v>
       </c>
       <c r="I67">
-        <v>549721</v>
+        <v>569421</v>
       </c>
       <c r="J67">
-        <v>15919314</v>
+        <v>15919323</v>
       </c>
       <c r="K67">
         <v>2847244</v>
@@ -5770,7 +5770,7 @@
         <v>1118483</v>
       </c>
       <c r="M67">
-        <v>93722</v>
+        <v>93730</v>
       </c>
       <c r="N67">
         <v>9683333</v>
@@ -5782,7 +5782,7 @@
         <v>32302</v>
       </c>
       <c r="Q67">
-        <v>-2398761</v>
+        <v>-2379069</v>
       </c>
       <c r="R67">
         <v>1815296</v>
@@ -5797,13 +5797,13 @@
         <v>869049</v>
       </c>
       <c r="V67">
-        <v>13521721</v>
+        <v>13541421</v>
       </c>
       <c r="W67">
-        <v>17735777</v>
+        <v>17735786</v>
       </c>
       <c r="X67">
-        <v>-4214056</v>
+        <v>-4194365</v>
       </c>
       <c r="Y67">
         <v>-2</v>

--- a/13/1/2/1/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
+++ b/13/1/2/1/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Serie</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5684,7 +5687,7 @@
         <v>699221</v>
       </c>
       <c r="J66">
-        <v>12289184</v>
+        <v>12289217</v>
       </c>
       <c r="K66">
         <v>2907966</v>
@@ -5693,7 +5696,7 @@
         <v>985079</v>
       </c>
       <c r="M66">
-        <v>915770</v>
+        <v>915803</v>
       </c>
       <c r="N66">
         <v>5335302</v>
@@ -5705,7 +5708,7 @@
         <v>25284</v>
       </c>
       <c r="Q66">
-        <v>-221613</v>
+        <v>-221646</v>
       </c>
       <c r="R66">
         <v>1286147</v>
@@ -5723,10 +5726,10 @@
         <v>12069376</v>
       </c>
       <c r="W66">
-        <v>13577136</v>
+        <v>13577169</v>
       </c>
       <c r="X66">
-        <v>-1507760</v>
+        <v>-1507792</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -5761,7 +5764,7 @@
         <v>569421</v>
       </c>
       <c r="J67">
-        <v>15919323</v>
+        <v>15919356</v>
       </c>
       <c r="K67">
         <v>2847244</v>
@@ -5770,7 +5773,7 @@
         <v>1118483</v>
       </c>
       <c r="M67">
-        <v>93730</v>
+        <v>93763</v>
       </c>
       <c r="N67">
         <v>9683333</v>
@@ -5782,7 +5785,7 @@
         <v>32302</v>
       </c>
       <c r="Q67">
-        <v>-2379069</v>
+        <v>-2379102</v>
       </c>
       <c r="R67">
         <v>1815296</v>
@@ -5800,13 +5803,90 @@
         <v>13541421</v>
       </c>
       <c r="W67">
-        <v>17735786</v>
+        <v>17735819</v>
       </c>
       <c r="X67">
-        <v>-4194365</v>
+        <v>-4194398</v>
       </c>
       <c r="Y67">
         <v>-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68">
+        <v>14115745</v>
+      </c>
+      <c r="C68">
+        <v>11243045</v>
+      </c>
+      <c r="D68">
+        <v>855625</v>
+      </c>
+      <c r="E68">
+        <v>699242</v>
+      </c>
+      <c r="F68">
+        <v>18295</v>
+      </c>
+      <c r="G68">
+        <v>166543</v>
+      </c>
+      <c r="H68">
+        <v>255784</v>
+      </c>
+      <c r="I68">
+        <v>877211</v>
+      </c>
+      <c r="J68">
+        <v>20209553</v>
+      </c>
+      <c r="K68">
+        <v>2858534</v>
+      </c>
+      <c r="L68">
+        <v>1113924</v>
+      </c>
+      <c r="M68">
+        <v>881840</v>
+      </c>
+      <c r="N68">
+        <v>13292928</v>
+      </c>
+      <c r="O68">
+        <v>2021446</v>
+      </c>
+      <c r="P68">
+        <v>40881</v>
+      </c>
+      <c r="Q68">
+        <v>-6093807</v>
+      </c>
+      <c r="R68">
+        <v>1822745</v>
+      </c>
+      <c r="S68">
+        <v>1326</v>
+      </c>
+      <c r="T68">
+        <v>976024</v>
+      </c>
+      <c r="U68">
+        <v>848047</v>
+      </c>
+      <c r="V68">
+        <v>14117071</v>
+      </c>
+      <c r="W68">
+        <v>22033623</v>
+      </c>
+      <c r="X68">
+        <v>-7916552</v>
+      </c>
+      <c r="Y68">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
